--- a/cfs_3_0.85.xlsx
+++ b/cfs_3_0.85.xlsx
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>74.5</v>
+        <v>74</v>
       </c>
       <c r="V11" t="n">
         <v>3</v>
@@ -2790,7 +2790,7 @@
         <v>187072</v>
       </c>
       <c r="J31" t="n">
-        <v>257356.3</v>
+        <v>257356</v>
       </c>
       <c r="K31" t="n">
         <v>210324</v>
@@ -3176,7 +3176,7 @@
         <v>192318</v>
       </c>
       <c r="L36" t="n">
-        <v>235974.6</v>
+        <v>235974</v>
       </c>
       <c r="M36" t="n">
         <v>232730</v>
@@ -6015,7 +6015,7 @@
         <v>4</v>
       </c>
       <c r="U73" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="V73" t="n">
         <v>6</v>
@@ -6623,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="U81" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="V81" t="n">
         <v>4</v>
@@ -7079,7 +7079,7 @@
         <v>4</v>
       </c>
       <c r="U87" t="n">
-        <v>79.7</v>
+        <v>79</v>
       </c>
       <c r="V87" t="n">
         <v>7</v>
